--- a/src/test/resources/testData/TestData.xlsx
+++ b/src/test/resources/testData/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\DSALGO231_20251227\dsalgo231testers\src\test\resources\excelTestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9120C3-7A9A-4A03-8144-B0B8D5463A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{313EF5BD-BBEA-4F11-AABC-1029ED4B4469}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Register_invalid" sheetId="3" r:id="rId1"/>
@@ -19,9 +13,9 @@
     <sheet name="login_invalid" sheetId="6" r:id="rId4"/>
     <sheet name="TryEditorPage_Data" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -142,12 +136,6 @@
     <t>validEntry</t>
   </si>
   <si>
-    <t>mita@671</t>
-  </si>
-  <si>
-    <t>qwerew123</t>
-  </si>
-  <si>
     <t>valid username and valid password</t>
   </si>
   <si>
@@ -188,13 +176,19 @@
   </si>
   <si>
     <t>testers</t>
+  </si>
+  <si>
+    <t>qwerfa781</t>
+  </si>
+  <si>
+    <t>juliab@42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,7 +314,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5E727811-A78A-4A34-A470-271666F89449}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -378,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -430,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -624,28 +618,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1D1BB-7CFB-4E0B-9A12-4C6202C5165B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="22.42578125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -673,7 +667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -687,7 +681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -701,7 +695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -715,7 +709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -729,7 +723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -743,7 +737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -757,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -771,7 +765,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -785,7 +779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -799,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -815,14 +809,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{ECF7F307-2B58-46CE-B272-5256239290CC}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{E129D60D-4E35-45FC-91ED-F3EF385DC607}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{0BF97800-382C-4AD6-91E9-B1F6B32293E7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{488D28CC-7CEA-4E06-90DD-30794D2139C1}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{DE367936-B6B3-4709-BA57-48EB37B45949}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{66460AD0-F283-46C5-87F7-FD81A23412FD}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{4F863B3F-CE07-4BEB-BC33-0259EBE2A441}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{F845701A-71F3-40FB-B3B8-65AC50BAC854}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="C7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -830,23 +824,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AD188E-DA8C-491C-8AD1-0E684F43CB5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="19.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,18 +854,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668575E2-CE96-4BE6-A107-AD67FE891672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -890,16 +884,16 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="12.6640625" style="11"/>
+    <col min="1" max="1" width="39.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="12.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -911,15 +905,15 @@
       </c>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -945,19 +939,19 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -969,7 +963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60E36C-A6E4-4A80-843C-C0FA21D9AEAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -979,15 +973,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" style="9" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="9"/>
-    <col min="4" max="4" width="32.109375" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="12.6640625" style="9"/>
+    <col min="1" max="1" width="40.28515625" style="9" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="9"/>
+    <col min="4" max="4" width="32.140625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="12.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -998,100 +992,100 @@
         <v>31</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>44</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="B7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1104,22 +1098,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361CFF70-DF1F-45E8-A053-759DE672A2A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1169,40 +1163,40 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="raj@123" xr:uid="{369E19BD-B6ED-467A-A9BE-8FC6CBEEACC5}"/>
+    <hyperlink ref="B2" r:id="rId1" display="raj@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
